--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.1/avg_0.004_scores.xlsx
@@ -52,39 +52,39 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
@@ -94,43 +94,43 @@
     <t>safety</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>good</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>please</t>
@@ -491,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,10 +499,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.88</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,19 +578,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -610,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7532467532467533</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C4">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="D4">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +628,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -660,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.296137339055794</v>
+        <v>0.1841085271317829</v>
       </c>
       <c r="C5">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>164</v>
+        <v>421</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -710,13 +710,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2093023255813954</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -728,95 +728,71 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L6">
+        <v>42</v>
+      </c>
+      <c r="M6">
+        <v>42</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6">
-        <v>0.9375</v>
-      </c>
-      <c r="L6">
-        <v>15</v>
-      </c>
-      <c r="M6">
-        <v>15</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.175</v>
-      </c>
-      <c r="C7">
+      <c r="K7">
+        <v>0.875</v>
+      </c>
+      <c r="L7">
+        <v>98</v>
+      </c>
+      <c r="M7">
+        <v>98</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>14</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>66</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7">
-        <v>0.9</v>
-      </c>
-      <c r="L7">
-        <v>36</v>
-      </c>
-      <c r="M7">
-        <v>36</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8627450980392157</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -828,21 +804,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -854,21 +830,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8518518518518519</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -880,21 +856,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.7890625</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -906,21 +882,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7647058823529411</v>
+        <v>0.775</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -932,21 +908,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7586206896551724</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L13">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -958,21 +934,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7586206896551724</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L14">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="M14">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -984,21 +960,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7435897435897436</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1010,21 +986,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7123287671232876</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L16">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1036,21 +1012,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6923076923076923</v>
+        <v>0.68125</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1062,21 +1038,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.68</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1088,21 +1064,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6363636363636364</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1114,21 +1090,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1140,21 +1116,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5833333333333334</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1166,21 +1142,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.539906103286385</v>
+        <v>0.5430809399477807</v>
       </c>
       <c r="L22">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="M22">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1192,21 +1168,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>98</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5333333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1218,21 +1194,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5277777777777778</v>
+        <v>0.4529411764705882</v>
       </c>
       <c r="L24">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="M24">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1244,21 +1220,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>68</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5142857142857142</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1270,21 +1246,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1296,21 +1272,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4806201550387597</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L27">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1322,33 +1298,59 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.3561643835616438</v>
+      </c>
+      <c r="L28">
+        <v>26</v>
+      </c>
+      <c r="M28">
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K28">
-        <v>0.358695652173913</v>
-      </c>
-      <c r="L28">
-        <v>33</v>
-      </c>
-      <c r="M28">
-        <v>33</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>59</v>
+      <c r="K29">
+        <v>0.3430962343096234</v>
+      </c>
+      <c r="L29">
+        <v>82</v>
+      </c>
+      <c r="M29">
+        <v>82</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,36 +55,39 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>love</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
@@ -94,9 +97,6 @@
     <t>safety</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
@@ -109,25 +109,22 @@
     <t>relief</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
@@ -491,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,7 +499,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,19 +575,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -602,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -610,13 +607,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5958904109589042</v>
+        <v>0.5993150684931506</v>
       </c>
       <c r="C4">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D4">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +625,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +657,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1841085271317829</v>
+        <v>0.1821705426356589</v>
       </c>
       <c r="C5">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +675,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -710,13 +707,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1693121693121693</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -728,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.9130434782608695</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -760,13 +757,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -778,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -786,13 +783,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8292682926829268</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -804,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -812,13 +809,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -830,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -838,13 +835,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -856,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -864,13 +861,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7890625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -882,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -916,13 +913,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7547169811320755</v>
+        <v>0.7734375</v>
       </c>
       <c r="L13">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -934,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -942,13 +939,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7535211267605634</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L14">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="M14">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -960,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -968,13 +965,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7254901960784313</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -986,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -994,13 +991,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6944444444444444</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1012,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1020,13 +1017,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.68125</v>
+        <v>0.7</v>
       </c>
       <c r="L17">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M17">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1038,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1046,13 +1043,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6190476190476191</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1064,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1072,13 +1069,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6063829787234043</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L19">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M19">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1090,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1124,13 +1121,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5531914893617021</v>
+        <v>0.5625</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1150,13 +1147,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5430809399477807</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L22">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1168,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>175</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1176,13 +1173,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5416666666666666</v>
+        <v>0.5091383812010444</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1194,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>22</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1202,13 +1199,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4529411764705882</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="L24">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M24">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1220,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1228,13 +1225,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4157303370786517</v>
+        <v>0.4271186440677966</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1246,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>52</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1254,13 +1251,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L26">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1272,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>177</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1280,13 +1277,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3717948717948718</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1298,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1306,13 +1303,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.3561643835616438</v>
+        <v>0.3430962343096234</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1324,32 +1321,6 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29">
-        <v>0.3430962343096234</v>
-      </c>
-      <c r="L29">
-        <v>82</v>
-      </c>
-      <c r="M29">
-        <v>82</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
         <v>157</v>
       </c>
     </row>
